--- a/outputs-r202/g__CAG-791.xlsx
+++ b/outputs-r202/g__CAG-791.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR14"/>
+  <dimension ref="A1:AS14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -793,6 +798,11 @@
           <t>s__CAG-791 sp900317555</t>
         </is>
       </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>s__CAG-791 sp900317555</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -931,6 +941,11 @@
           <t>s__CAG-791 sp900317555</t>
         </is>
       </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>s__CAG-791 sp900317555(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1069,6 +1084,11 @@
           <t>s__CAG-791 sp900317555</t>
         </is>
       </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>s__CAG-791 sp900317555</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1207,6 +1227,11 @@
           <t>s__CAG-791 sp900318375</t>
         </is>
       </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>s__CAG-791 sp900318375</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1345,6 +1370,11 @@
           <t>s__CAG-791 sp900317555</t>
         </is>
       </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>s__CAG-791 sp900317555</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1483,6 +1513,11 @@
           <t>s__CAG-791 sp900319245</t>
         </is>
       </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>s__CAG-791 sp900319245</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1621,6 +1656,11 @@
           <t>s__CAG-791 sp900317555</t>
         </is>
       </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>s__CAG-791 sp900317555</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1759,6 +1799,11 @@
           <t>s__CAG-791 sp900320335</t>
         </is>
       </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>s__CAG-791 sp900320335</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1897,6 +1942,11 @@
           <t>s__CAG-791 sp900317475</t>
         </is>
       </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>s__CAG-791 sp900317475(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2035,6 +2085,11 @@
           <t>s__CAG-791 sp900317555</t>
         </is>
       </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>s__CAG-791 sp900317555</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2173,6 +2228,11 @@
           <t>s__CAG-791 sp900321785</t>
         </is>
       </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>s__CAG-791 sp900321785</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2311,6 +2371,11 @@
           <t>s__CAG-791 sp900317555</t>
         </is>
       </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>s__CAG-791 sp900317555(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2447,6 +2512,11 @@
       <c r="AR14" t="inlineStr">
         <is>
           <t>s__CAG-791 sp902781325</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>s__CAG-791 sp902781325(reject)</t>
         </is>
       </c>
     </row>
